--- a/plots/countries/plot data/Belgium.xlsx
+++ b/plots/countries/plot data/Belgium.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>11.6364727651646</v>
+        <v>11.381540277964</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>28.3494764289396</v>
+        <v>28.3239646759085</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>1.37656114574436</v>
+        <v>1.37650413574436</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>23.5272026328635</v>
+        <v>23.6038305254484</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>29.728256372513</v>
+        <v>29.6771210725583</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>20.9296063690561</v>
+        <v>20.9684842329886</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>25.5052562539752</v>
+        <v>25.505423477576</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.9399003761447</v>
+        <v>-2.83917081702787</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.79624093343565</v>
+        <v>4.80337374269177</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>11.5253434228856</v>
+        <v>11.3117557119641</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>31.3001982551935</v>
+        <v>31.2080777225283</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>1.2086761600184</v>
+        <v>1.2086507100184</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>23.7833080827574</v>
+        <v>23.8753643806211</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>30.1605195620584</v>
+        <v>30.1605195619809</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>21.1076680846826</v>
+        <v>21.1376436100973</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>24.5506419955165</v>
+        <v>24.5507726557671</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.47475856480006</v>
+        <v>-2.37124001793906</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.94731479750478</v>
+        <v>4.95439546848862</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>11.5197865762545</v>
+        <v>11.233854545914</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>31.1110107726546</v>
+        <v>31.0124649771991</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0460790574397</v>
+        <v>1.0459464474397</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>22.6550157809969</v>
+        <v>22.7532409104652</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>29.24631384373</v>
+        <v>29.2463138438074</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>21.8623235421628</v>
+        <v>21.8894172920203</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>25.5721967744638</v>
+        <v>25.5722879575638</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.29472537179444</v>
+        <v>-2.18822592936022</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>5.0690525941134</v>
+        <v>5.07610388164759</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>11.6582454216103</v>
+        <v>11.2766696921319</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>31.2343785060525</v>
+        <v>31.1474035050331</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1.09291245702972</v>
+        <v>1.09295961716146</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>22.5881454258589</v>
+        <v>22.6749640919465</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>28.5150897253914</v>
+        <v>28.5150897253139</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>22.3610107094393</v>
+        <v>22.3847647471126</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>24.7370183726466</v>
+        <v>24.7370873320727</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.3118333258626</v>
+        <v>-2.19773214501116</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.71365583149711</v>
+        <v>4.72063894384432</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>11.5477288770971</v>
+        <v>11.2574015355367</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>30.8344459664127</v>
+        <v>30.810633855675</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.961035070294386</v>
+        <v>0.960958160294386</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>23.1722343140388</v>
+        <v>23.2588806319854</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>29.6539295225806</v>
+        <v>29.5908983525806</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>22.8590891744401</v>
+        <v>22.8919540070628</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>27.626475182782</v>
+        <v>27.6265211247866</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.06069025220538</v>
+        <v>-1.94340864363121</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>4.79380318607753</v>
+        <v>4.8007234018977</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>11.7539535767711</v>
+        <v>11.4499585256557</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>31.4560182080037</v>
+        <v>31.4217285124928</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.968586800640146</v>
+        <v>0.968460220640146</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>23.1697961804603</v>
+        <v>23.2709653370739</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>29.2570191713904</v>
+        <v>29.1899063013904</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>22.9422887071021</v>
+        <v>22.9718596088474</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>29.2694915445977</v>
+        <v>29.2696065661677</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.28916221962392</v>
+        <v>-2.16830169797455</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>4.76563918468841</v>
+        <v>4.77249005097745</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>11.6689465676774</v>
+        <v>11.2829771961922</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>36.7431903173262</v>
+        <v>36.682085984206</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.952455672786776</v>
+        <v>0.952344332786776</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>22.4524259567308</v>
+        <v>22.5673581019261</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>28.6123648642322</v>
+        <v>28.5582073442322</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>23.3700747441511</v>
+        <v>23.3913258929874</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>28.7641202906282</v>
+        <v>28.7642036297629</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.48523170229517</v>
+        <v>-2.36003626670266</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>4.66686717387938</v>
+        <v>4.67365317628518</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>11.6568013444067</v>
+        <v>11.2030160849281</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>32.3990654466588</v>
+        <v>32.3434255447141</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.913386925794986</v>
+        <v>0.913472845794986</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>21.85405253145</v>
+        <v>21.9636110857543</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>27.5529974803125</v>
+        <v>27.4988428903125</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>23.5866765381694</v>
+        <v>23.6106650068486</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>26.1474533513155</v>
+        <v>26.1475536921395</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.03515937117993</v>
+        <v>-1.90982336998944</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>4.71233036502479</v>
+        <v>4.71902351991919</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>11.465832481924</v>
+        <v>11.084068318628</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>32.7045484633424</v>
+        <v>32.6514763070205</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.892533919901813</v>
+        <v>0.892596939901813</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>22.3925882183373</v>
+        <v>22.4995767338197</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>30.4526853385354</v>
+        <v>30.3985307485354</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>24.2493935395089</v>
+        <v>24.279250447255</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>27.2981967984235</v>
+        <v>27.2983086145898</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.59159157719434</v>
+        <v>-2.46207750854106</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>4.55899962041371</v>
+        <v>4.56561747363194</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>11.6448423637776</v>
+        <v>11.1130263117782</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>31.6622655556079</v>
+        <v>31.5851855478257</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>0.901572549939955</v>
+        <v>0.901448009939955</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>21.4486281070718</v>
+        <v>21.5499687437087</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>26.7617489439249</v>
+        <v>26.7372659339249</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>24.5710076580752</v>
+        <v>24.6062893277109</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>26.4644183156277</v>
+        <v>26.4645338295118</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.11613394397882</v>
+        <v>-2.13696606345018</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>4.28012565021072</v>
+        <v>4.28666758916651</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>10.8537824989242</v>
+        <v>10.3469780228816</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>30.1354580987364</v>
+        <v>30.0588378268329</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.938844195107953</v>
+        <v>0.938854585107953</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>21.6532814914302</v>
+        <v>21.7469867581543</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>28.4959367158629</v>
+        <v>28.4782332058629</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>24.989911096219</v>
+        <v>25.0428274129693</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>27.6653222980925</v>
+        <v>27.6654515238628</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.69524330794578</v>
+        <v>-1.7268155058728</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>4.14606315262476</v>
+        <v>4.15254914338327</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>10.6551825458027</v>
+        <v>10.1576454730172</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>32.4353581358517</v>
+        <v>32.3759824554176</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.911392576986081</v>
+        <v>0.911413696986081</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>21.6124337586898</v>
+        <v>21.705531904766</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>26.1621838439353</v>
+        <v>26.1276928439353</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>25.5470748463395</v>
+        <v>25.5656723139101</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>26.2981286321114</v>
+        <v>26.2982583492239</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-1.52402305340278</v>
+        <v>-1.56621240650441</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>3.69808550840914</v>
+        <v>3.70413993826876</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>10.5152546049873</v>
+        <v>10.0001724572714</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>31.7133011844218</v>
+        <v>31.6448195471915</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.884061858985762</v>
+        <v>0.884199508985762</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>20.9110726702524</v>
+        <v>20.9983514827294</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>27.6414671154974</v>
+        <v>27.6224305954974</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>25.8635894417071</v>
+        <v>25.8836741119463</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>26.1789934328731</v>
+        <v>26.179129540843</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.11591129850725</v>
+        <v>-2.16846336583718</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>3.70812276070183</v>
+        <v>3.71377025734555</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>10.1470443841399</v>
+        <v>9.60838659520402</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>32.2723655744167</v>
+        <v>32.1986947820572</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.816114380115537</v>
+        <v>0.816052470115537</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>19.7731503081308</v>
+        <v>19.8646685166683</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>28.8054404403153</v>
+        <v>28.7872847103153</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>26.4501280122053</v>
+        <v>26.4948277970478</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>26.0987680207698</v>
+        <v>26.0989203593543</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-2.01054517358927</v>
+        <v>-2.07321624846948</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>3.36889758209864</v>
+        <v>3.37413130499429</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>10.0698818463698</v>
+        <v>9.58612088298324</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>30.8157899685911</v>
+        <v>30.747861294445</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.798826340316551</v>
+        <v>0.798791680316551</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>19.5154842959632</v>
+        <v>19.608164681007</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>29.2696543191007</v>
+        <v>29.2446417191119</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>27.5340886524547</v>
+        <v>27.5656138760809</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>27.1237936785843</v>
+        <v>27.1239583526682</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-1.71503947136086</v>
+        <v>-1.80534771522665</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>3.40718518291321</v>
+        <v>3.41201951452142</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>9.87572438328031</v>
+        <v>9.42287590315373</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>30.3010738262955</v>
+        <v>30.2301576439353</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.819703734385296</v>
+        <v>0.819834064385296</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>18.9328527932963</v>
+        <v>19.0259590491844</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>29.0049034764067</v>
+        <v>28.982488706393</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>26.7427292261661</v>
+        <v>26.7623822699161</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>26.5254186868843</v>
+        <v>26.5255865237686</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-1.77483905098976</v>
+        <v>-1.86110496133296</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>3.22720725001545</v>
+        <v>3.23161679568173</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>9.66350079588467</v>
+        <v>9.28427662694527</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>28.8469151002636</v>
+        <v>28.7895267445674</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>0.841351555865877</v>
+        <v>0.841482575865877</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>19.1226147513936</v>
+        <v>19.2036757948043</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>27.8952819674679</v>
+        <v>27.8714035875324</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>27.3424079776591</v>
+        <v>27.3603034196401</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>25.8061244206346</v>
+        <v>25.806309337631</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-1.75172620078144</v>
+        <v>-1.84616332867631</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>3.20967976063366</v>
+        <v>3.21372114778191</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>9.78080156813169</v>
+        <v>9.41653245428328</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>26.4914315447217</v>
+        <v>26.449053798035</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.822179323754545</v>
+        <v>0.822208433754545</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>19.1880136768571</v>
+        <v>19.2496541206769</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>27.2108983508081</v>
+        <v>27.1914499807295</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>28.1963067682912</v>
+        <v>28.2102223166583</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>24.2818953288389</v>
+        <v>24.2820808890018</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-1.45015177617244</v>
+        <v>-1.55244991188155</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>3.13673133980041</v>
+        <v>3.14040456278654</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>9.64313194396</v>
+        <v>9.31400354621528</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>28.0405283200388</v>
+        <v>27.9933156435278</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.791651760556377</v>
+        <v>0.791751640556377</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>19.342513980494</v>
+        <v>19.423565213141</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>25.0992435053758</v>
+        <v>25.0651989561254</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>28.277660400088</v>
+        <v>28.3041991742636</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>24.9175085643866</v>
+        <v>24.9177048258632</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-1.37644518791664</v>
+        <v>-1.48631472766946</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>2.92810357355002</v>
+        <v>2.93141168832015</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>9.75138178130075</v>
+        <v>9.35241484951307</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>27.2847441429616</v>
+        <v>27.2472072569392</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.792822936375471</v>
+        <v>0.792794786375471</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>13.7849973497014</v>
+        <v>13.8574592893856</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>25.584815493744</v>
+        <v>25.5497879089022</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>27.5003892769147</v>
+        <v>27.52880502478</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>19.0037433066907</v>
+        <v>19.0039552153674</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-1.20359541813556</v>
+        <v>-1.32856223865074</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>2.75136052989655</v>
+        <v>2.75427898504559</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>9.71363566150385</v>
+        <v>9.38719362528229</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>29.8328966719184</v>
+        <v>29.8574367050504</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.840271635055941</v>
+        <v>0.840169125055941</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>15.9870094039997</v>
+        <v>16.0265057781171</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>26.1358964310118</v>
+        <v>26.1076231999095</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>26.710729917901</v>
+        <v>26.7505725181696</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>21.6627479443528</v>
+        <v>21.6629389501801</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.359624183219713</v>
+        <v>-0.478272576517734</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>2.64534461090524</v>
+        <v>2.64939814368834</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>9.63935936061648</v>
+        <v>9.21314174942259</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>24.6514730312189</v>
+        <v>24.6755761528288</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.779093668497127</v>
+        <v>0.779172798497127</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>15.5807912908123</v>
+        <v>15.6275289750303</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>22.7104109359576</v>
+        <v>22.6693543341198</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>26.3070647120707</v>
+        <v>26.3424839603086</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>21.1234138745245</v>
+        <v>21.1236390324643</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-0.254953318478923</v>
+        <v>-0.436323435560699</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>2.42747137160728</v>
+        <v>2.43211886511519</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>9.57540371829412</v>
+        <v>9.201689703102</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>25.7592985110425</v>
+        <v>25.7825619309546</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.746666754662755</v>
+        <v>0.746656814662755</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>14.6178155417313</v>
+        <v>14.6615940785687</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>22.5584910431714</v>
+        <v>22.5218469933246</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>25.4859065888546</v>
+        <v>25.5119614914338</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>19.3855549432725</v>
+        <v>19.3905603275579</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.238512896468413</v>
+        <v>-0.490390885874964</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>2.33877104237017</v>
+        <v>2.34124564721182</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>9.57519442389715</v>
+        <v>9.1784599116149</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>27.74950988812</v>
+        <v>27.7900573894551</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.739925522389019</v>
+        <v>0.739880972389019</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>14.3703792792959</v>
+        <v>14.4120839600425</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>21.1108336661641</v>
+        <v>21.0618075530104</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>24.9993104699845</v>
+        <v>25.0259614356479</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>20.0651295370792</v>
+        <v>20.0714359029186</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.777641247237857</v>
+        <v>-0.918090603821126</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.9540518762766</v>
+        <v>1.9560688784798</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>9.70325046190075</v>
+        <v>9.27200186418222</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>23.133270068473</v>
+        <v>23.1663413981625</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.713314611224059</v>
+        <v>0.713324661224058</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>13.8084387171889</v>
+        <v>13.8508416634172</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>20.1190887205956</v>
+        <v>20.0696158378924</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>25.2472110440184</v>
+        <v>25.2744982538725</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>20.3816159698102</v>
+        <v>20.386934229063</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.791087767017471</v>
+        <v>-0.963080489186812</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.76680791863679</v>
+        <v>1.76940384954087</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>9.70980891909314</v>
+        <v>9.20319854853055</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>24.9096170763426</v>
+        <v>24.9526417622155</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>13.8374631432087</v>
+        <v>13.8800692259831</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>20.8419428188003</v>
+        <v>20.7866517152096</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>26.921990415393</v>
+        <v>26.9511701999229</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>20.4461005237618</v>
+        <v>20.4540148071234</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-0.741117971197517</v>
+        <v>-0.851174162671994</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.7035258273298</v>
+        <v>1.7047451256356</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>9.59590767599009</v>
+        <v>9.20689428444446</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>24.7549815661637</v>
+        <v>24.7980143295122</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.71125359604939</v>
+        <v>0.711253596049391</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>13.7102663124409</v>
+        <v>13.7681179641343</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>19.5412198865027</v>
+        <v>19.485891745748</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>26.637111478887</v>
+        <v>26.6725663276368</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>20.9805414857084</v>
+        <v>20.9890270442574</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-0.672605124718393</v>
+        <v>-0.778110300661473</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.59690835626541</v>
+        <v>1.59715577230498</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>9.64691300614898</v>
+        <v>9.11759599697561</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>24.5654694359847</v>
+        <v>24.6090880317291</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>13.8437174909266</v>
+        <v>13.8929352673038</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>19.6861619151345</v>
+        <v>19.631908840431</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>26.0618154987227</v>
+        <v>26.1177208793907</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>20.9183736295494</v>
+        <v>20.9304043731016</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-0.555613937150565</v>
+        <v>-0.659607610037629</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.5913129778853</v>
+        <v>1.59213197035154</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>9.52642527109231</v>
+        <v>9.01027660919733</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>24.7718819798655</v>
+        <v>24.8159900259883</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>14.14935228571</v>
+        <v>14.1977184844569</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>19.6399416086254</v>
+        <v>19.5845960376015</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>26.2351602446219</v>
+        <v>26.3005031228974</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>21.2325885977661</v>
+        <v>21.2417251884311</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.566590487458554</v>
+        <v>-0.623157510190306</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.48991577331012</v>
+        <v>1.49025080777224</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>9.5528328535634</v>
+        <v>9.07722486911866</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>24.147086964411</v>
+        <v>24.1978779508241</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.719327244358453</v>
+        <v>0.713136444358452</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>13.9433780630106</v>
+        <v>13.9927967026161</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>20.9676585390391</v>
+        <v>20.9034266345388</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>25.9943937519506</v>
+        <v>26.0747767130955</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>19.9242668925449</v>
+        <v>19.9343375988913</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.411596765107866</v>
+        <v>-0.387038832113308</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.43098552708834</v>
+        <v>1.43084763162687</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>9.50858633294788</v>
+        <v>9.03135568433054</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>23.5283373701965</v>
+        <v>23.5659786676264</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.675118385334662</v>
+        <v>0.668983865334662</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>13.3347610888811</v>
+        <v>13.2781521081439</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>18.988035292077</v>
+        <v>18.9355219578354</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>21.6705288387248</v>
+        <v>21.7904319476425</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>18.3846453803352</v>
+        <v>18.3675432808818</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.384718483333299</v>
+        <v>-0.398639108795178</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.330513696248</v>
+        <v>1.32994018622244</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>9.40624388732852</v>
+        <v>8.93492296625468</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>24.4828547289878</v>
+        <v>24.5114878916626</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.658194983066341</v>
+        <v>0.652116743066341</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>14.1294494405822</v>
+        <v>14.0342886984956</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>18.2003305876012</v>
+        <v>18.1532674716891</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>23.8570521202325</v>
+        <v>24.0276243511659</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>18.1957037587956</v>
+        <v>18.1854820681231</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-0.280618616636756</v>
+        <v>-0.330414376303971</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.26603381795625</v>
+        <v>1.26510442090842</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>9.14904875025499</v>
+        <v>8.6410235481508</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>20.4911308515983</v>
+        <v>20.2836866582461</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.643972048145591</v>
+        <v>0.637931328145591</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>12.5651243644265</v>
+        <v>12.759000255827</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>18.5014397694649</v>
+        <v>18.3086035932818</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>24.1866069225326</v>
+        <v>24.3107290976531</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>16.8630561195933</v>
+        <v>16.8558876080015</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-0.418986371825201</v>
+        <v>-0.516391618744174</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.17574667872228</v>
+        <v>1.17971289580155</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>8.69304653608763</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>19.9636316329654</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.588826596293494</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>12.2199353091508</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>15.6127716531455</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>24.6708401802896</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>15.3021316833099</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.306065176535498</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.17004612373534</v>
       </c>
     </row>
   </sheetData>
